--- a/output/fit_clients/fit_round_460.xlsx
+++ b/output/fit_clients/fit_round_460.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1801695461.080115</v>
+        <v>1950432169.08516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1100659660148688</v>
+        <v>0.06997479294151095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04129042879533311</v>
+        <v>0.03461976755747533</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>900847699.5753</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2061294506.291392</v>
+        <v>1812628351.125172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1721298649608494</v>
+        <v>0.1637616900003989</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04874001241462515</v>
+        <v>0.04302512145875077</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1030647302.711761</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3677333803.953467</v>
+        <v>4996336501.917768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1179646352564376</v>
+        <v>0.1006816399993445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02713532231249414</v>
+        <v>0.03333226699574922</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>166</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1838666893.312829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2763092294.74477</v>
+        <v>3006856835.244541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1105406564343188</v>
+        <v>0.08777254612539252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03832899385822665</v>
+        <v>0.04658779445176004</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>170</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1381546232.949821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2569615072.578053</v>
+        <v>2739889545.384703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09429709410301915</v>
+        <v>0.1050313591515834</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05203037244523599</v>
+        <v>0.03516033614538783</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1284807504.255326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2118052085.688616</v>
+        <v>2191741175.44031</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07471171543436612</v>
+        <v>0.08463371316213837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0439828013193512</v>
+        <v>0.03537453732795062</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1059026092.712456</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3132218591.45228</v>
+        <v>3006244092.590325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1411332516353046</v>
+        <v>0.1917366421480084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03027874337119919</v>
+        <v>0.03151805771403626</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>147</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1566109366.774554</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2232651324.842288</v>
+        <v>1595172317.744151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1769251997233028</v>
+        <v>0.1764422075168605</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03063315468165027</v>
+        <v>0.02925228000936189</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1116325656.769763</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5064227641.67996</v>
+        <v>5026912027.369734</v>
       </c>
       <c r="F10" t="n">
-        <v>0.180452213635727</v>
+        <v>0.1511721977731694</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04141533789103675</v>
+        <v>0.04628671069242459</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>194</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2532113925.132097</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3496336161.134951</v>
+        <v>3354715917.330961</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1871357773974225</v>
+        <v>0.1726518673107063</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03981513061734802</v>
+        <v>0.03299700368746288</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>190</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1748168058.144887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2802314359.965096</v>
+        <v>2370945129.748787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1992416302915147</v>
+        <v>0.1916940429455261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05134895590133454</v>
+        <v>0.04709489908707427</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>156</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1401157179.913424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5338086992.723777</v>
+        <v>3423487658.850298</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09157757370057831</v>
+        <v>0.0976864306201049</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01956363285439908</v>
+        <v>0.0202681349591834</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>154</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2669043483.34665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2940592919.90749</v>
+        <v>3227047569.051014</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1504801169892534</v>
+        <v>0.1787603417194871</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03613195923524618</v>
+        <v>0.03744122064936285</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1470296498.715002</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1276439230.650129</v>
+        <v>1576887138.915316</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1020822565322947</v>
+        <v>0.1029722133950251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03177562521158909</v>
+        <v>0.03931402898661119</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>638219650.1508169</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2031062452.368519</v>
+        <v>2119115748.708549</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09456890917498476</v>
+        <v>0.1055683202426266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03590763335969335</v>
+        <v>0.03300848113469288</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1015531298.908052</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4044755598.195006</v>
+        <v>5237772915.238822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.168919544934686</v>
+        <v>0.1546837839806587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04817611968839572</v>
+        <v>0.03777185928833428</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2022377831.52414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3457636474.559632</v>
+        <v>3824721871.307025</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1130926132847447</v>
+        <v>0.1226626168155352</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02355686279172244</v>
+        <v>0.0211137106766232</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>151</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1728818234.426881</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>954271647.8346283</v>
+        <v>1375867163.758951</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1919703899915184</v>
+        <v>0.1910967891575317</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01890976802715601</v>
+        <v>0.02190164534651667</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>477135842.0250356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2616510478.122652</v>
+        <v>1800182103.5097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1490199186157933</v>
+        <v>0.1411297097093185</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02876928296753804</v>
+        <v>0.02253331583190649</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1308255199.758505</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2273580212.127755</v>
+        <v>1781907874.854351</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025392800864804</v>
+        <v>0.08686470263631664</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03744185243993851</v>
+        <v>0.02949918002440362</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1136790115.866971</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3502592420.449345</v>
+        <v>3362247075.27899</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1274502931889888</v>
+        <v>0.1140851357976327</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05413251789736778</v>
+        <v>0.04544039127195215</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1751296241.680987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1476355073.576558</v>
+        <v>1434969750.988028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1790741990635855</v>
+        <v>0.1154619227423536</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05316274566395345</v>
+        <v>0.04121777349862347</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>738177526.7496864</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3253095651.830562</v>
+        <v>3460642132.790637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1161901512738962</v>
+        <v>0.1082763230998953</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02696676772382198</v>
+        <v>0.02416473452972328</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1626547844.15177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1379433295.127877</v>
+        <v>1125587091.611251</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1030207328304472</v>
+        <v>0.07645722739444914</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02222776289417014</v>
+        <v>0.02121062159502606</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>689716624.266348</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1380144963.550773</v>
+        <v>1159818626.513282</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08207284617500728</v>
+        <v>0.08264805814388132</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03690916286281529</v>
+        <v>0.02417322234690655</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>690072546.9029306</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3704409906.028082</v>
+        <v>3305916000.565515</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1419222278367863</v>
+        <v>0.0954279170929718</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01771349022363631</v>
+        <v>0.01807105324620872</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>105</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1852204977.855937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3241620288.198502</v>
+        <v>3245077389.583316</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1273775592451403</v>
+        <v>0.09732338471445232</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03465333387755386</v>
+        <v>0.03635115341375367</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>148</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1620810176.308491</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5550509561.190094</v>
+        <v>4892971757.175976</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1255286231033035</v>
+        <v>0.1238409301883251</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04659251120572662</v>
+        <v>0.02864286142611408</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>203</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2775254690.002069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2271021765.303149</v>
+        <v>1955931059.636854</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189845199338046</v>
+        <v>0.1239019944745387</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03680825513102887</v>
+        <v>0.03616728577736521</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1135510950.973156</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1482256509.393108</v>
+        <v>1248993667.742275</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09240884902526353</v>
+        <v>0.08041323546614153</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03725557803242203</v>
+        <v>0.03321379851225645</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>741128139.7461447</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1477618463.635395</v>
+        <v>1142577898.918215</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1163999341339548</v>
+        <v>0.09192197395751538</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03642979541901414</v>
+        <v>0.03581461399196346</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>738809295.535411</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1947784442.670565</v>
+        <v>2167598942.513753</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1280583588424889</v>
+        <v>0.1393341801669946</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05194065676366298</v>
+        <v>0.04043958508556668</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141</v>
-      </c>
-      <c r="J33" t="n">
-        <v>973892306.581396</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1087440622.365053</v>
+        <v>1142095829.087288</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08920531226309765</v>
+        <v>0.0827432316115197</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01891678379835798</v>
+        <v>0.02393282133127069</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>543720334.7585715</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>847417981.391625</v>
+        <v>831850541.6366708</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08585914581127992</v>
+        <v>0.07372090346544147</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03095310605031156</v>
+        <v>0.03700693888775954</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>423709042.7427059</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2873230594.240943</v>
+        <v>2759168630.780188</v>
       </c>
       <c r="F36" t="n">
-        <v>0.134233719042763</v>
+        <v>0.1169947389326387</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02682873148204976</v>
+        <v>0.02434804993999692</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>116</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1436615289.231243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2159525162.062675</v>
+        <v>2536056658.684669</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07681052460902772</v>
+        <v>0.1086819113511559</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03033217568925932</v>
+        <v>0.03961494056306734</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>124</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1079762630.262649</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1446647847.695985</v>
+        <v>1828730841.302961</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1100564960504488</v>
+        <v>0.114203269495213</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02527610803855496</v>
+        <v>0.02475018037837123</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>723323980.6622843</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1686513038.687199</v>
+        <v>2041854787.501016</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1198732327374415</v>
+        <v>0.1441713059985064</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02752081219591099</v>
+        <v>0.02452947376529588</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>843256561.4791356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1348589583.650558</v>
+        <v>1118671425.441828</v>
       </c>
       <c r="F40" t="n">
-        <v>0.126412374801446</v>
+        <v>0.1409648018142001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05855046747817368</v>
+        <v>0.03912728826046638</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>674294795.948104</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2372593941.779916</v>
+        <v>1926088859.08833</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1073161526191799</v>
+        <v>0.140750810171317</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04478689291395198</v>
+        <v>0.04002579383738286</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1186297008.707977</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4279704308.249857</v>
+        <v>3154554895.612286</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1212242070135828</v>
+        <v>0.1005580676758867</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03989268094459102</v>
+        <v>0.03041740910092396</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2139852202.672883</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1926891069.032371</v>
+        <v>2819099457.058043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1709382252906446</v>
+        <v>0.1608663983716259</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02263011580731086</v>
+        <v>0.02291510084352568</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>161</v>
-      </c>
-      <c r="J43" t="n">
-        <v>963445640.8418993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2025998668.900617</v>
+        <v>2156016723.778469</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09505234543456834</v>
+        <v>0.06736861277578454</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02554764536482705</v>
+        <v>0.02653095309362175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1012999446.001953</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1990794009.659646</v>
+        <v>1781202013.634634</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1341878573594041</v>
+        <v>0.1352670667483342</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04431255092052008</v>
+        <v>0.04925625888410108</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>995396994.7755142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5477005670.944051</v>
+        <v>3620427308.799463</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1379058327685409</v>
+        <v>0.1763376475052942</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05747035029003432</v>
+        <v>0.05053289499380294</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>164</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2738502889.629702</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3271108889.844305</v>
+        <v>3405982041.675344</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1251191449057641</v>
+        <v>0.1495946278575101</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03774843858192035</v>
+        <v>0.03966470382280531</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1635554402.753537</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4447498707.18309</v>
+        <v>3238281648.403659</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08017381435001945</v>
+        <v>0.0812295797622626</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02428353445375802</v>
+        <v>0.03219719448640848</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>150</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2223749362.003493</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1529176055.598911</v>
+        <v>1614881828.677364</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1771565915457227</v>
+        <v>0.1367315674176078</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03326415955867235</v>
+        <v>0.03659551972215084</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>764588055.319939</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4165802835.307467</v>
+        <v>4060200109.081541</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1092239643047632</v>
+        <v>0.1571618747175166</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04203223059279716</v>
+        <v>0.03747606357517881</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>157</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2082901394.569638</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1087917262.448239</v>
+        <v>1368502980.56539</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1758497385355329</v>
+        <v>0.1335197429814213</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0533196790452917</v>
+        <v>0.04905939846521006</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>543958700.9650841</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4176709986.383803</v>
+        <v>4006034846.268149</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08704942266502237</v>
+        <v>0.1384013000963966</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04456407900565654</v>
+        <v>0.05222332116134038</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>190</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2088355039.295915</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2705810458.464473</v>
+        <v>3379287481.025589</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1257934160391327</v>
+        <v>0.1679367705006628</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02339805542566949</v>
+        <v>0.02733921066326909</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>132</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1352905282.027125</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3996378639.05829</v>
+        <v>4148388645.234111</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1337666158175168</v>
+        <v>0.1534731939820832</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03942758088798346</v>
+        <v>0.03808636274057988</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1998189383.319736</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4275452196.709591</v>
+        <v>3382270104.89907</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1696973632032826</v>
+        <v>0.1373756878817666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02220691169328771</v>
+        <v>0.03172010328402064</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>128</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2137726085.468398</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1364057048.273549</v>
+        <v>1536233434.597029</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511435374772751</v>
+        <v>0.1088627696595104</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05320236799849586</v>
+        <v>0.05455410822515452</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>682028586.5320596</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4081176699.038325</v>
+        <v>4406165485.543343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1533856425414169</v>
+        <v>0.1711063385614452</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02420961357078891</v>
+        <v>0.02222550373400255</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>147</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2040588444.723167</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1909878055.921317</v>
+        <v>1152071298.586359</v>
       </c>
       <c r="F58" t="n">
-        <v>0.147978238942959</v>
+        <v>0.2001012995049225</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03654271288416202</v>
+        <v>0.02991274138918519</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>954939021.7126337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5191877692.94055</v>
+        <v>3272369391.226438</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1266649401169616</v>
+        <v>0.09068005225611914</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03549827434024359</v>
+        <v>0.0498814809723133</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2595938764.950452</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3557070889.140556</v>
+        <v>3097024115.496053</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1415345514031401</v>
+        <v>0.1939982560428249</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02913601832854547</v>
+        <v>0.02919221125832537</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1778535573.374768</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2340496236.42547</v>
+        <v>2579503774.982235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1520346287984932</v>
+        <v>0.1585626491627167</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02032543965389361</v>
+        <v>0.02894710103434642</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>158</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1170248160.895412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2025598171.068451</v>
+        <v>1563206369.591591</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1837639488018957</v>
+        <v>0.1949137114260479</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0492028470798288</v>
+        <v>0.04840856045104878</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1012799147.481215</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3910481315.210336</v>
+        <v>4924703934.234283</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08726712201107913</v>
+        <v>0.09232683418736325</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03315881391496418</v>
+        <v>0.03143868660072847</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>131</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1955240723.983812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3703513540.444168</v>
+        <v>5215240131.438865</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1703610374954514</v>
+        <v>0.1740811223672338</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03032574995327268</v>
+        <v>0.03310142473660648</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>143</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1851756785.246889</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3806219417.910232</v>
+        <v>5868492055.063225</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1484614303664547</v>
+        <v>0.1600485635074302</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02836415373120287</v>
+        <v>0.02629779376750834</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>165</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1903109739.123679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5733965503.274139</v>
+        <v>3968227768.798242</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1489482407728268</v>
+        <v>0.1587714564004565</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03755681037646193</v>
+        <v>0.0400582055861772</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2866982818.119533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3154967314.909311</v>
+        <v>3061731726.075617</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1002955135715735</v>
+        <v>0.07752139185272021</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04419229174850224</v>
+        <v>0.04193779272135024</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>148</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1577483662.647827</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5776001049.762791</v>
+        <v>4825618237.588499</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1429427999225948</v>
+        <v>0.102806590026145</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03641068700780919</v>
+        <v>0.04900241658925322</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2888000628.329348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1531381191.43232</v>
+        <v>2245474230.948948</v>
       </c>
       <c r="F69" t="n">
-        <v>0.17017418209786</v>
+        <v>0.1590133920606303</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04347876949953289</v>
+        <v>0.05512801107535888</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>765690540.085862</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3512742394.690147</v>
+        <v>2589233436.323952</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0852944711955968</v>
+        <v>0.09314560873931382</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03403569925770169</v>
+        <v>0.03414987695555501</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>132</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1756371207.70142</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4244741096.373568</v>
+        <v>4760877424.934082</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1558902605817523</v>
+        <v>0.1198979085910225</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03391170532897057</v>
+        <v>0.03279589500698079</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>167</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2122370597.530467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1580137596.743373</v>
+        <v>1782903431.846922</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07580412304746134</v>
+        <v>0.1067293126142591</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04080187854044087</v>
+        <v>0.05067472867544419</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>790068812.4483519</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2525476536.000934</v>
+        <v>3505461291.578452</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08167653829973832</v>
+        <v>0.07864949367170228</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03379709609494098</v>
+        <v>0.03565561301228926</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1262738307.457932</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2792292132.012439</v>
+        <v>3372883236.696701</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1771730579402745</v>
+        <v>0.1305227272351698</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02562185533792194</v>
+        <v>0.02164678757165492</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>157</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1396146149.396136</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2407650072.294289</v>
+        <v>1979468366.164523</v>
       </c>
       <c r="F75" t="n">
-        <v>0.141860239951532</v>
+        <v>0.163946443500978</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02816446889451282</v>
+        <v>0.02729052373091916</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1203824962.108226</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4481477624.048121</v>
+        <v>5143139648.606333</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07872279840366884</v>
+        <v>0.09317437055111917</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02635797368188938</v>
+        <v>0.02098586224133186</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2240738816.950831</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1883396658.006107</v>
+        <v>2090566716.600894</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1206805344754737</v>
+        <v>0.1662575146029873</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02876519039089558</v>
+        <v>0.02625437365211372</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>941698373.3620521</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4049516974.47697</v>
+        <v>2933106141.602716</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1225634115750426</v>
+        <v>0.1013338104089653</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04175782488986885</v>
+        <v>0.04362042233480608</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>160</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2024758449.426919</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1608075051.020336</v>
+        <v>1343157701.336287</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1315500502313715</v>
+        <v>0.1514683036778084</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02612058017673427</v>
+        <v>0.03739487895685801</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>804037578.6119163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3545003979.275322</v>
+        <v>4386478217.283256</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07271702686849048</v>
+        <v>0.1097007379296262</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03717052555231929</v>
+        <v>0.02863109015618608</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>104</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1772501966.510977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3194548792.674914</v>
+        <v>5203109266.630635</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09838416841586867</v>
+        <v>0.1316131105417634</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02850066760852075</v>
+        <v>0.02598233213123319</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1597274329.649281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4628748167.778913</v>
+        <v>4988850495.949851</v>
       </c>
       <c r="F82" t="n">
-        <v>0.174210591491149</v>
+        <v>0.1684676184421649</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0192532579017221</v>
+        <v>0.01943700980753382</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>161</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2314374088.576413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2391582485.318708</v>
+        <v>1669303690.024736</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1521554649934649</v>
+        <v>0.108291859131507</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02986777140882653</v>
+        <v>0.03392433218628629</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1195791276.746581</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2572819124.49979</v>
+        <v>1667477722.023656</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1200893609629132</v>
+        <v>0.08176360650616871</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04413679381560606</v>
+        <v>0.04909028790936562</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1286409483.362459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2475662390.383528</v>
+        <v>2861334591.192442</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1651250854851557</v>
+        <v>0.1203929421838448</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04821404429528782</v>
+        <v>0.04610801680724261</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>172</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1237831197.456206</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1906855104.090997</v>
+        <v>2488023819.876578</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1275751098071158</v>
+        <v>0.1130859408721754</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02412853113172478</v>
+        <v>0.01987105569579014</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>953427566.7462276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386042774.484322</v>
+        <v>1063858722.331845</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1359162070109101</v>
+        <v>0.1634341677453508</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03638828115347464</v>
+        <v>0.03347324977703252</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>693021490.5245353</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3181082752.790177</v>
+        <v>2337444906.998122</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1356343220574268</v>
+        <v>0.1583800874734195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03791248201377322</v>
+        <v>0.03489067011675529</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>183</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1590541424.752373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3012087191.956704</v>
+        <v>2599716160.07057</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1092711731441102</v>
+        <v>0.101449702631484</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03728080656898844</v>
+        <v>0.02561036748857915</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>155</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1506043633.236174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2056524037.892277</v>
+        <v>2095803313.641772</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1262252601159188</v>
+        <v>0.1315711690783616</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04523570572464396</v>
+        <v>0.053520595030227</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1028262099.539258</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1640681948.805158</v>
+        <v>1658965518.536268</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1618220892016932</v>
+        <v>0.1694040490705227</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04687461636323399</v>
+        <v>0.06007144753585859</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>820340994.5761513</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2040921997.714439</v>
+        <v>2998103572.367909</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07345144814032285</v>
+        <v>0.1024683328453353</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03500053013330912</v>
+        <v>0.03669497782831277</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1020460948.123363</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5039891873.459082</v>
+        <v>3452782625.479852</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1061594423468707</v>
+        <v>0.08951496178828854</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04987821645581082</v>
+        <v>0.04323563056228152</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2519945870.139036</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1617982122.330258</v>
+        <v>1821764858.357008</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1552906527609466</v>
+        <v>0.1193075285589739</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03716866588693978</v>
+        <v>0.03119833242088808</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>808991009.825572</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2493189112.296962</v>
+        <v>2498309673.3311</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09259436665171526</v>
+        <v>0.1311931425584837</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04776242292351305</v>
+        <v>0.03587235976793672</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1246594592.747793</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1807325528.903212</v>
+        <v>1667774760.286496</v>
       </c>
       <c r="F96" t="n">
-        <v>0.114103446153137</v>
+        <v>0.09807469849333511</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03366312883467217</v>
+        <v>0.04676506107222154</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>903662772.0359306</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5128661483.5336</v>
+        <v>5316579730.756824</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1180140851813648</v>
+        <v>0.171040152377176</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01956826878602489</v>
+        <v>0.02853125434455158</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2564330888.936033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2522069731.620757</v>
+        <v>2963714690.699911</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1027869295585658</v>
+        <v>0.1077725836351335</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02056145122843704</v>
+        <v>0.02589944644509228</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>122</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1261034818.147936</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2162077006.184491</v>
+        <v>2652170084.985622</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1259961524240794</v>
+        <v>0.09523282004333743</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02730628372883881</v>
+        <v>0.02478066850760646</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1081038428.406396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3119856492.337511</v>
+        <v>2973039748.838457</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1523037905917518</v>
+        <v>0.1149071581513317</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02271673452850094</v>
+        <v>0.01970761882624851</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1559928246.606588</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2460448251.845951</v>
+        <v>3576201739.654823</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1411993827928832</v>
+        <v>0.1804308754708346</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0575515170440541</v>
+        <v>0.05324143968545296</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>189</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1230224143.739425</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_460.xlsx
+++ b/output/fit_clients/fit_round_460.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1950432169.08516</v>
+        <v>1810283855.521611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06997479294151095</v>
+        <v>0.1014671042059056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03461976755747533</v>
+        <v>0.03902075334006676</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1812628351.125172</v>
+        <v>2177202121.577428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1637616900003989</v>
+        <v>0.1607875856811336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04302512145875077</v>
+        <v>0.04859955935151695</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4996336501.917768</v>
+        <v>4034959800.687831</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1006816399993445</v>
+        <v>0.1504151263788286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03333226699574922</v>
+        <v>0.02692151195483927</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3006856835.244541</v>
+        <v>3873175037.555504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08777254612539252</v>
+        <v>0.08794780395230242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04658779445176004</v>
+        <v>0.03231446976806056</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2739889545.384703</v>
+        <v>2070946183.424302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1050313591515834</v>
+        <v>0.1335336613704445</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03516033614538783</v>
+        <v>0.03868257448873887</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2191741175.44031</v>
+        <v>2891835403.33041</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08463371316213837</v>
+        <v>0.06449168089346177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03537453732795062</v>
+        <v>0.03505567920712915</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3006244092.590325</v>
+        <v>3488527470.459671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1917366421480084</v>
+        <v>0.1777038985476649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03151805771403626</v>
+        <v>0.0324200227270469</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1595172317.744151</v>
+        <v>2299838659.686224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1764422075168605</v>
+        <v>0.1326445376726736</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02925228000936189</v>
+        <v>0.03691375624683007</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5026912027.369734</v>
+        <v>5427041986.73376</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1511721977731694</v>
+        <v>0.1367763822252559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04628671069242459</v>
+        <v>0.03661578371274571</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3354715917.330961</v>
+        <v>3996727519.483039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726518673107063</v>
+        <v>0.1434551334647617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03299700368746288</v>
+        <v>0.03027234454409827</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2370945129.748787</v>
+        <v>2065850659.203416</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1916940429455261</v>
+        <v>0.1338022730676308</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04709489908707427</v>
+        <v>0.0538924236124717</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3423487658.850298</v>
+        <v>4815476974.022854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0976864306201049</v>
+        <v>0.09167558402172583</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0202681349591834</v>
+        <v>0.02703091566317451</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3227047569.051014</v>
+        <v>3380899215.557373</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1787603417194871</v>
+        <v>0.1308662284189163</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03744122064936285</v>
+        <v>0.0339325439784034</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1576887138.915316</v>
+        <v>1169548887.40259</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1029722133950251</v>
+        <v>0.09348597987173979</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03931402898661119</v>
+        <v>0.04709728016379908</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2119115748.708549</v>
+        <v>1898767210.259329</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1055683202426266</v>
+        <v>0.1052371149250267</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03300848113469288</v>
+        <v>0.03525969701817399</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5237772915.238822</v>
+        <v>4414699753.561954</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1546837839806587</v>
+        <v>0.1257880173338776</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03777185928833428</v>
+        <v>0.03638880149645063</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3824721871.307025</v>
+        <v>2829749582.284101</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1226626168155352</v>
+        <v>0.1197364777832078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0211137106766232</v>
+        <v>0.02429096654798471</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1375867163.758951</v>
+        <v>1017508386.166958</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1910967891575317</v>
+        <v>0.1683528955957327</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02190164534651667</v>
+        <v>0.02223875202762007</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1800182103.5097</v>
+        <v>2163553083.839162</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1411297097093185</v>
+        <v>0.1335951846115367</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02253331583190649</v>
+        <v>0.02272103756441588</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1781907874.854351</v>
+        <v>2437889236.727728</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08686470263631664</v>
+        <v>0.09908736510353774</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02949918002440362</v>
+        <v>0.04315435343279051</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3362247075.27899</v>
+        <v>2503807700.194009</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1140851357976327</v>
+        <v>0.1045728801678947</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04544039127195215</v>
+        <v>0.03462475756770876</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1434969750.988028</v>
+        <v>1359852245.892579</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1154619227423536</v>
+        <v>0.1377662174597749</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04121777349862347</v>
+        <v>0.0405735642362349</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3460642132.790637</v>
+        <v>3710976756.465194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1082763230998953</v>
+        <v>0.1163689123206916</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02416473452972328</v>
+        <v>0.02963263536868315</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1125587091.611251</v>
+        <v>1470612023.103566</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07645722739444914</v>
+        <v>0.1000323175134141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02121062159502606</v>
+        <v>0.02308892464006356</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1159818626.513282</v>
+        <v>1257892236.786566</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08264805814388132</v>
+        <v>0.09872891757630795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02417322234690655</v>
+        <v>0.02491265627551347</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3305916000.565515</v>
+        <v>4206594692.322936</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0954279170929718</v>
+        <v>0.116331384842971</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01807105324620872</v>
+        <v>0.0188659661445211</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3245077389.583316</v>
+        <v>3577159152.041629</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09732338471445232</v>
+        <v>0.1391310617324576</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03635115341375367</v>
+        <v>0.04617590491429622</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4892971757.175976</v>
+        <v>5858467594.592177</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1238409301883251</v>
+        <v>0.1287900034227329</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02864286142611408</v>
+        <v>0.04208325639424602</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1955931059.636854</v>
+        <v>1963932546.672063</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1239019944745387</v>
+        <v>0.1062022295925153</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03616728577736521</v>
+        <v>0.02494094095297729</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1248993667.742275</v>
+        <v>1495935639.621555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08041323546614153</v>
+        <v>0.06999070484560636</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03321379851225645</v>
+        <v>0.04035428670577414</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1142577898.918215</v>
+        <v>1892135874.037412</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09192197395751538</v>
+        <v>0.1015483934804641</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03581461399196346</v>
+        <v>0.03533936358067287</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2167598942.513753</v>
+        <v>3022541927.732154</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1393341801669946</v>
+        <v>0.1957323541812853</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04043958508556668</v>
+        <v>0.05898781836972566</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1142095829.087288</v>
+        <v>1310088050.069889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0827432316115197</v>
+        <v>0.08593689648809968</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02393282133127069</v>
+        <v>0.02416190006525313</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>831850541.6366708</v>
+        <v>1176034064.113886</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07372090346544147</v>
+        <v>0.1116578194835781</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03700693888775954</v>
+        <v>0.03022992307312726</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2759168630.780188</v>
+        <v>2413411305.476996</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1169947389326387</v>
+        <v>0.1264647903512755</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02434804993999692</v>
+        <v>0.01756213293469104</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2536056658.684669</v>
+        <v>1845515317.252526</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1086819113511559</v>
+        <v>0.07239356204101227</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03961494056306734</v>
+        <v>0.04211901841143598</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1828730841.302961</v>
+        <v>1684775416.004519</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114203269495213</v>
+        <v>0.08889831718257671</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02475018037837123</v>
+        <v>0.02645160344786884</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2041854787.501016</v>
+        <v>1393597130.070102</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1441713059985064</v>
+        <v>0.1178764646980249</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02452947376529588</v>
+        <v>0.03123354165315406</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1118671425.441828</v>
+        <v>1771689264.667614</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1409648018142001</v>
+        <v>0.1403111470562898</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03912728826046638</v>
+        <v>0.05036600739481386</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1926088859.08833</v>
+        <v>2235420159.274066</v>
       </c>
       <c r="F41" t="n">
-        <v>0.140750810171317</v>
+        <v>0.1572418242474175</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04002579383738286</v>
+        <v>0.02906860797712174</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3154554895.612286</v>
+        <v>3413369217.565019</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1005580676758867</v>
+        <v>0.09485485659174554</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03041740910092396</v>
+        <v>0.03508956567892543</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2819099457.058043</v>
+        <v>2497605947.874512</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1608663983716259</v>
+        <v>0.1478395176779059</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02291510084352568</v>
+        <v>0.01650714155887564</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2156016723.778469</v>
+        <v>2062252907.995411</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06736861277578454</v>
+        <v>0.09104564831116899</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02653095309362175</v>
+        <v>0.02471103416849935</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1781202013.634634</v>
+        <v>1571356735.844834</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1352670667483342</v>
+        <v>0.1822525676106799</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04925625888410108</v>
+        <v>0.04818768568769216</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3620427308.799463</v>
+        <v>5047293696.255816</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1763376475052942</v>
+        <v>0.1460672302852074</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05053289499380294</v>
+        <v>0.0517866507637202</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3405982041.675344</v>
+        <v>4916732060.881839</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1495946278575101</v>
+        <v>0.1520684915726938</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03966470382280531</v>
+        <v>0.04600197574234086</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3238281648.403659</v>
+        <v>3300574923.519933</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0812295797622626</v>
+        <v>0.09161591203272992</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03219719448640848</v>
+        <v>0.03264980247487766</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1614881828.677364</v>
+        <v>1797794555.633922</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1367315674176078</v>
+        <v>0.1648584751067993</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03659551972215084</v>
+        <v>0.04059136967464838</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4060200109.081541</v>
+        <v>3683442736.368607</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1571618747175166</v>
+        <v>0.1080507898556808</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03747606357517881</v>
+        <v>0.04419156504118776</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1368502980.56539</v>
+        <v>1137295150.586148</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1335197429814213</v>
+        <v>0.1424670318646141</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04905939846521006</v>
+        <v>0.05143939189935477</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4006034846.268149</v>
+        <v>3282748705.856124</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1384013000963966</v>
+        <v>0.0851564163555651</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05222332116134038</v>
+        <v>0.04386496797474233</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3379287481.025589</v>
+        <v>2617382197.768668</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1679367705006628</v>
+        <v>0.1551471430349757</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02733921066326909</v>
+        <v>0.02412721551605176</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4148388645.234111</v>
+        <v>3309644477.527008</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1534731939820832</v>
+        <v>0.1105944994924876</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03808636274057988</v>
+        <v>0.037256520063684</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3382270104.89907</v>
+        <v>3516376109.75932</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1373756878817666</v>
+        <v>0.1484565304911403</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03172010328402064</v>
+        <v>0.03205339240463493</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1536233434.597029</v>
+        <v>1436597632.976526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1088627696595104</v>
+        <v>0.1430557146732383</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05455410822515452</v>
+        <v>0.05625207127903792</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4406165485.543343</v>
+        <v>4326744695.649754</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1711063385614452</v>
+        <v>0.1475560699298024</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02222550373400255</v>
+        <v>0.01930528261390567</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1152071298.586359</v>
+        <v>1520539675.915816</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2001012995049225</v>
+        <v>0.1308740916364819</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02991274138918519</v>
+        <v>0.02540107251589599</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3272369391.226438</v>
+        <v>4681873925.511086</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09068005225611914</v>
+        <v>0.1272202500469724</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0498814809723133</v>
+        <v>0.03545531182498984</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3097024115.496053</v>
+        <v>2390823076.179826</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1939982560428249</v>
+        <v>0.1502396394623101</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02919221125832537</v>
+        <v>0.02815828597289766</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2579503774.982235</v>
+        <v>2991807699.887436</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1585626491627167</v>
+        <v>0.1493231614585543</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02894710103434642</v>
+        <v>0.02248205005542334</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1563206369.591591</v>
+        <v>1850467162.66398</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1949137114260479</v>
+        <v>0.194927296772843</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04840856045104878</v>
+        <v>0.0414993404707491</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4924703934.234283</v>
+        <v>4749225882.097877</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09232683418736325</v>
+        <v>0.06505299663099942</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03143868660072847</v>
+        <v>0.03176461832732475</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5215240131.438865</v>
+        <v>4386590809.372278</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1740811223672338</v>
+        <v>0.1756527037611026</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03310142473660648</v>
+        <v>0.02974821670103076</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5868492055.063225</v>
+        <v>4970342211.939093</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1600485635074302</v>
+        <v>0.1206418933114969</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02629779376750834</v>
+        <v>0.02490309632222769</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3968227768.798242</v>
+        <v>3661185986.504508</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587714564004565</v>
+        <v>0.1006751234724376</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0400582055861772</v>
+        <v>0.04096324576278961</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3061731726.075617</v>
+        <v>2609298200.284145</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07752139185272021</v>
+        <v>0.07145730500895382</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04193779272135024</v>
+        <v>0.03475293129070022</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4825618237.588499</v>
+        <v>5212403832.087882</v>
       </c>
       <c r="F68" t="n">
-        <v>0.102806590026145</v>
+        <v>0.1552814123632638</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04900241658925322</v>
+        <v>0.0445676278198951</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2245474230.948948</v>
+        <v>2322116581.263064</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1590133920606303</v>
+        <v>0.131071415218896</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05512801107535888</v>
+        <v>0.04092029282523808</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2589233436.323952</v>
+        <v>3727366025.911233</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09314560873931382</v>
+        <v>0.09442856389481027</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03414987695555501</v>
+        <v>0.04719740234381269</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4760877424.934082</v>
+        <v>3670085189.294107</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1198979085910225</v>
+        <v>0.1854126598700027</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03279589500698079</v>
+        <v>0.02472558898159142</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1782903431.846922</v>
+        <v>1714767318.942205</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1067293126142591</v>
+        <v>0.1078337622849249</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05067472867544419</v>
+        <v>0.03356989203306891</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3505461291.578452</v>
+        <v>2295788823.251563</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07864949367170228</v>
+        <v>0.1019607750292419</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03565561301228926</v>
+        <v>0.03281502958997831</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3372883236.696701</v>
+        <v>2687733874.587374</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1305227272351698</v>
+        <v>0.1384170218811966</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02164678757165492</v>
+        <v>0.02710780620980148</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1979468366.164523</v>
+        <v>2263382933.805754</v>
       </c>
       <c r="F75" t="n">
-        <v>0.163946443500978</v>
+        <v>0.1671317334932183</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02729052373091916</v>
+        <v>0.0334698661471677</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5143139648.606333</v>
+        <v>3680028433.129436</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09317437055111917</v>
+        <v>0.09607613272741274</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02098586224133186</v>
+        <v>0.02551812929738616</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2090566716.600894</v>
+        <v>1861218734.947568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1662575146029873</v>
+        <v>0.1307584928901173</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02625437365211372</v>
+        <v>0.03173932970284965</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2933106141.602716</v>
+        <v>4306617512.199492</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1013338104089653</v>
+        <v>0.1151176880866215</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04362042233480608</v>
+        <v>0.04958559122206961</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1343157701.336287</v>
+        <v>1196523476.286861</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1514683036778084</v>
+        <v>0.1757004714546211</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03739487895685801</v>
+        <v>0.03999641704698908</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4386478217.283256</v>
+        <v>4738540787.615822</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1097007379296262</v>
+        <v>0.1033446341912087</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02863109015618608</v>
+        <v>0.02484192386738325</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5203109266.630635</v>
+        <v>4126935774.459929</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1316131105417634</v>
+        <v>0.1041901607943636</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02598233213123319</v>
+        <v>0.02662913051394928</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4988850495.949851</v>
+        <v>4998947428.130724</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1684676184421649</v>
+        <v>0.1403836940271315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01943700980753382</v>
+        <v>0.02279364769280209</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1669303690.024736</v>
+        <v>1605875244.251245</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108291859131507</v>
+        <v>0.1279947586581943</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03392433218628629</v>
+        <v>0.03345900734210147</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1667477722.023656</v>
+        <v>2084678411.959008</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08176360650616871</v>
+        <v>0.1143112965911017</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04909028790936562</v>
+        <v>0.04111965084014596</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2861334591.192442</v>
+        <v>2959989244.576046</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1203929421838448</v>
+        <v>0.1697157868093224</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04610801680724261</v>
+        <v>0.03533357429340532</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2488023819.876578</v>
+        <v>2151970011.292093</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1130859408721754</v>
+        <v>0.1205385069560219</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01987105569579014</v>
+        <v>0.0257394419787868</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1063858722.331845</v>
+        <v>1317851033.562325</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1634341677453508</v>
+        <v>0.1756459619923732</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03347324977703252</v>
+        <v>0.03222985163470818</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2337444906.998122</v>
+        <v>2605418068.583773</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1583800874734195</v>
+        <v>0.1181083738020769</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03489067011675529</v>
+        <v>0.02845815392265046</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2599716160.07057</v>
+        <v>2635058193.069191</v>
       </c>
       <c r="F89" t="n">
-        <v>0.101449702631484</v>
+        <v>0.1241146654473912</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02561036748857915</v>
+        <v>0.03613662240668437</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2095803313.641772</v>
+        <v>2151390713.913465</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1315711690783616</v>
+        <v>0.1117257631183261</v>
       </c>
       <c r="G90" t="n">
-        <v>0.053520595030227</v>
+        <v>0.04010480905446835</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1658965518.536268</v>
+        <v>1357779663.835229</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1694040490705227</v>
+        <v>0.1596916332093601</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06007144753585859</v>
+        <v>0.0535981136212668</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2998103572.367909</v>
+        <v>2855801323.411079</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1024683328453353</v>
+        <v>0.109599207412934</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03669497782831277</v>
+        <v>0.04362690182201916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3452782625.479852</v>
+        <v>3197366079.205238</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08951496178828854</v>
+        <v>0.1393314487987056</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04323563056228152</v>
+        <v>0.04508473945205174</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1821764858.357008</v>
+        <v>2107701301.641144</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1193075285589739</v>
+        <v>0.1611588526184347</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03119833242088808</v>
+        <v>0.03011523899913408</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2498309673.3311</v>
+        <v>3179807892.713921</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1311931425584837</v>
+        <v>0.1018678776607841</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03587235976793672</v>
+        <v>0.03802095357478245</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1667774760.286496</v>
+        <v>1487868196.483576</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09807469849333511</v>
+        <v>0.09174841379697513</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04676506107222154</v>
+        <v>0.03021262987624419</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5316579730.756824</v>
+        <v>3726729092.811778</v>
       </c>
       <c r="F97" t="n">
-        <v>0.171040152377176</v>
+        <v>0.1767338088725939</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02853125434455158</v>
+        <v>0.02014758245861321</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2963714690.699911</v>
+        <v>3888207003.251343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1077725836351335</v>
+        <v>0.1136955441419075</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02589944644509228</v>
+        <v>0.02078538935064548</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2652170084.985622</v>
+        <v>3231161273.890944</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09523282004333743</v>
+        <v>0.1478909209933501</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02478066850760646</v>
+        <v>0.02641402722171735</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2973039748.838457</v>
+        <v>3348292091.998216</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1149071581513317</v>
+        <v>0.1368874109706006</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01970761882624851</v>
+        <v>0.02636728648469826</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3576201739.654823</v>
+        <v>2683848100.865125</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1804308754708346</v>
+        <v>0.1826571095302259</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05324143968545296</v>
+        <v>0.05102965492031793</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_460.xlsx
+++ b/output/fit_clients/fit_round_460.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1810283855.521611</v>
+        <v>2023851909.094227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1014671042059056</v>
+        <v>0.08050332354345352</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03902075334006676</v>
+        <v>0.04447619248859445</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2177202121.577428</v>
+        <v>2336428365.789169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1607875856811336</v>
+        <v>0.1375272281113287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04859955935151695</v>
+        <v>0.03586538100224241</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4034959800.687831</v>
+        <v>4939079831.066177</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1504151263788286</v>
+        <v>0.1622112417619774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02692151195483927</v>
+        <v>0.02443768546845275</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>233</v>
+      </c>
+      <c r="J4" t="n">
+        <v>460</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3873175037.555504</v>
+        <v>3106508435.711946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08794780395230242</v>
+        <v>0.1089239615994781</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03231446976806056</v>
+        <v>0.03248124781018997</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>193</v>
+      </c>
+      <c r="J5" t="n">
+        <v>458</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2070946183.424302</v>
+        <v>2250345579.594588</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1335336613704445</v>
+        <v>0.1182164228267086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03868257448873887</v>
+        <v>0.04937730411868003</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2891835403.33041</v>
+        <v>2063389273.445938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06449168089346177</v>
+        <v>0.06860153507385171</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03505567920712915</v>
+        <v>0.04325468818829013</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3488527470.459671</v>
+        <v>3037548867.504111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1777038985476649</v>
+        <v>0.2018891592353793</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0324200227270469</v>
+        <v>0.02167100273664524</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>130</v>
+      </c>
+      <c r="J8" t="n">
+        <v>458</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2299838659.686224</v>
+        <v>1928730304.513799</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1326445376726736</v>
+        <v>0.1344710155118699</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03691375624683007</v>
+        <v>0.03277372523723998</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5427041986.73376</v>
+        <v>4779696212.307649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1367763822252559</v>
+        <v>0.1585031980907375</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03661578371274571</v>
+        <v>0.03481852569627045</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>355</v>
+      </c>
+      <c r="J10" t="n">
+        <v>460</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3996727519.483039</v>
+        <v>3286876329.704116</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1434551334647617</v>
+        <v>0.1621227881448253</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03027234454409827</v>
+        <v>0.04855118281624574</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>191</v>
+      </c>
+      <c r="J11" t="n">
+        <v>459</v>
+      </c>
+      <c r="K11" t="n">
+        <v>34.12717096796314</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2065850659.203416</v>
+        <v>2621572555.108391</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1338022730676308</v>
+        <v>0.1434208666386502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0538924236124717</v>
+        <v>0.05325675818787746</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4815476974.022854</v>
+        <v>3723077537.391881</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09167558402172583</v>
+        <v>0.06239364640096736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02703091566317451</v>
+        <v>0.02410853564784724</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>239</v>
+      </c>
+      <c r="J13" t="n">
+        <v>458</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3380899215.557373</v>
+        <v>3140515933.91126</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1308662284189163</v>
+        <v>0.1552661875576667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0339325439784034</v>
+        <v>0.02690478139266266</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>101</v>
+      </c>
+      <c r="J14" t="n">
+        <v>460</v>
+      </c>
+      <c r="K14" t="n">
+        <v>42.63944547993344</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1169548887.40259</v>
+        <v>1815277726.888446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09348597987173979</v>
+        <v>0.1062811741773784</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04709728016379908</v>
+        <v>0.03442539985041529</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1898767210.259329</v>
+        <v>2846529303.76567</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052371149250267</v>
+        <v>0.08892136671414205</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03525969701817399</v>
+        <v>0.03134812585929191</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4414699753.561954</v>
+        <v>5114164320.303693</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1257880173338776</v>
+        <v>0.1399580098276721</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03638880149645063</v>
+        <v>0.04670528783577638</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>225</v>
+      </c>
+      <c r="J17" t="n">
+        <v>459</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.23734816745525</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2829749582.284101</v>
+        <v>3363816698.743615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1197364777832078</v>
+        <v>0.1625249445681302</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02429096654798471</v>
+        <v>0.03219302092193312</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1017508386.166958</v>
+        <v>1068274584.633705</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1683528955957327</v>
+        <v>0.1497055665290704</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02223875202762007</v>
+        <v>0.02518738761298522</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2163553083.839162</v>
+        <v>2222219496.987531</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1335951846115367</v>
+        <v>0.1291360157247736</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02272103756441588</v>
+        <v>0.02999544839278979</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2437889236.727728</v>
+        <v>2325986643.047499</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09908736510353774</v>
+        <v>0.09711727222193949</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04315435343279051</v>
+        <v>0.04045478403724902</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2503807700.194009</v>
+        <v>3135614080.847135</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1045728801678947</v>
+        <v>0.1319122426456192</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03462475756770876</v>
+        <v>0.04914442088900001</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>132</v>
+      </c>
+      <c r="J22" t="n">
+        <v>458</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1359852245.892579</v>
+        <v>1403310540.682308</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1377662174597749</v>
+        <v>0.1654574227443433</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0405735642362349</v>
+        <v>0.0529571484680861</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3710976756.465194</v>
+        <v>2911631575.871812</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1163689123206916</v>
+        <v>0.1127119126284609</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02963263536868315</v>
+        <v>0.02908839026503278</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>146</v>
+      </c>
+      <c r="J24" t="n">
+        <v>459</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.42660176488867</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1470612023.103566</v>
+        <v>1144889457.960896</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1000323175134141</v>
+        <v>0.07770880961799348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02308892464006356</v>
+        <v>0.02490189683223331</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1257892236.786566</v>
+        <v>952790374.2162075</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09872891757630795</v>
+        <v>0.1002956569487727</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02491265627551347</v>
+        <v>0.0383554743070907</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4206594692.322936</v>
+        <v>4179570960.900664</v>
       </c>
       <c r="F27" t="n">
-        <v>0.116331384842971</v>
+        <v>0.1556237548732435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0188659661445211</v>
+        <v>0.02390747541142919</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>201</v>
+      </c>
+      <c r="J27" t="n">
+        <v>460</v>
+      </c>
+      <c r="K27" t="n">
+        <v>37.35417093138835</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1421,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3577159152.041629</v>
+        <v>3004254043.275724</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1391310617324576</v>
+        <v>0.1034656932683135</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04617590491429622</v>
+        <v>0.03763499204349757</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>113</v>
+      </c>
+      <c r="J28" t="n">
+        <v>460</v>
+      </c>
+      <c r="K28" t="n">
+        <v>38.93886105768632</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5858467594.592177</v>
+        <v>5143213480.029914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1287900034227329</v>
+        <v>0.1311730389020813</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04208325639424602</v>
+        <v>0.03547865475026069</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>371</v>
+      </c>
+      <c r="J29" t="n">
+        <v>459</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30.85441610474861</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1963932546.672063</v>
+        <v>2380632080.806239</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1062022295925153</v>
+        <v>0.1023578968964911</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02494094095297729</v>
+        <v>0.02743784675293094</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1495935639.621555</v>
+        <v>1082074164.951323</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06999070484560636</v>
+        <v>0.07540462381339001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04035428670577414</v>
+        <v>0.05102007484314623</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1892135874.037412</v>
+        <v>1290910518.458375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1015483934804641</v>
+        <v>0.0832596939583166</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03533936358067287</v>
+        <v>0.03617766284196913</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3022541927.732154</v>
+        <v>2194038663.116198</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1957323541812853</v>
+        <v>0.1931581294104887</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05898781836972566</v>
+        <v>0.05252651271383936</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1310088050.069889</v>
+        <v>1134202522.13585</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08593689648809968</v>
+        <v>0.1018710071395135</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02416190006525313</v>
+        <v>0.024720147186393</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1176034064.113886</v>
+        <v>1226502636.677822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1116578194835781</v>
+        <v>0.07545172514013448</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03022992307312726</v>
+        <v>0.02803110688217912</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2413411305.476996</v>
+        <v>2120490382.525109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1264647903512755</v>
+        <v>0.1355395526561872</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01756213293469104</v>
+        <v>0.02622835504670137</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1845515317.252526</v>
+        <v>2818757208.745111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07239356204101227</v>
+        <v>0.08835906908259125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04211901841143598</v>
+        <v>0.04213982022977769</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684775416.004519</v>
+        <v>2070688424.742487</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08889831718257671</v>
+        <v>0.07465948092213986</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02645160344786884</v>
+        <v>0.03771457872789331</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1393597130.070102</v>
+        <v>1623749088.359663</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1178764646980249</v>
+        <v>0.1383707032125705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03123354165315406</v>
+        <v>0.02522457767615829</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1771689264.667614</v>
+        <v>1214387879.285426</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1403111470562898</v>
+        <v>0.121140468873907</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05036600739481386</v>
+        <v>0.0524556068823441</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2235420159.274066</v>
+        <v>2719199357.553728</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1572418242474175</v>
+        <v>0.1211867713035989</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02906860797712174</v>
+        <v>0.04480461613100529</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3413369217.565019</v>
+        <v>2872076000.229887</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09485485659174554</v>
+        <v>0.1090324805724463</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03508956567892543</v>
+        <v>0.03604806527299691</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>202</v>
+      </c>
+      <c r="J42" t="n">
+        <v>459</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.79727840959672</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2497605947.874512</v>
+        <v>2039660178.032264</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1478395176779059</v>
+        <v>0.1280510319213237</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01650714155887564</v>
+        <v>0.02349797133602651</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2062252907.995411</v>
+        <v>2307724746.339326</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09104564831116899</v>
+        <v>0.07101660781117812</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02471103416849935</v>
+        <v>0.02344309753019652</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1571356735.844834</v>
+        <v>2039927545.70003</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1822525676106799</v>
+        <v>0.1172659382716646</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04818768568769216</v>
+        <v>0.03417046607610242</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5047293696.255816</v>
+        <v>3559281596.34652</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1460672302852074</v>
+        <v>0.1496818972656036</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0517866507637202</v>
+        <v>0.04139195211986775</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>273</v>
+      </c>
+      <c r="J46" t="n">
+        <v>459</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32.96012278298733</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4916732060.881839</v>
+        <v>4663666765.818065</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1520684915726938</v>
+        <v>0.1855489098107737</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04600197574234086</v>
+        <v>0.0516636874942381</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>207</v>
+      </c>
+      <c r="J47" t="n">
+        <v>460</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3300574923.519933</v>
+        <v>4283622158.699019</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09161591203272992</v>
+        <v>0.09504174095537619</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03264980247487766</v>
+        <v>0.02690275537807005</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>229</v>
+      </c>
+      <c r="J48" t="n">
+        <v>460</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35.06060040443036</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1797794555.633922</v>
+        <v>1475011574.193543</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1648584751067993</v>
+        <v>0.1829135718568939</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04059136967464838</v>
+        <v>0.0434435066317941</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3683442736.368607</v>
+        <v>2927404716.581867</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1080507898556808</v>
+        <v>0.1305517554652563</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04419156504118776</v>
+        <v>0.04615808138773554</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>164</v>
+      </c>
+      <c r="J50" t="n">
+        <v>459</v>
+      </c>
+      <c r="K50" t="n">
+        <v>27.63578808805079</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1137295150.586148</v>
+        <v>1508208716.406603</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1424670318646141</v>
+        <v>0.1679881364844669</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05143939189935477</v>
+        <v>0.04374995102816363</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3282748705.856124</v>
+        <v>3537217359.917468</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0851564163555651</v>
+        <v>0.106932479731608</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04386496797474233</v>
+        <v>0.05507010519297706</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>261</v>
+      </c>
+      <c r="J52" t="n">
+        <v>459</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.10423996364641</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2617382197.768668</v>
+        <v>2566334531.181878</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1551471430349757</v>
+        <v>0.2012159937902765</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02412721551605176</v>
+        <v>0.03312501592577437</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3309644477.527008</v>
+        <v>3049483507.71489</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1105944994924876</v>
+        <v>0.1187220878642433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.037256520063684</v>
+        <v>0.03192990653681748</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>244</v>
+      </c>
+      <c r="J54" t="n">
+        <v>459</v>
+      </c>
+      <c r="K54" t="n">
+        <v>25.45441700574713</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3516376109.75932</v>
+        <v>4320047729.123543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1484565304911403</v>
+        <v>0.2086636425204423</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03205339240463493</v>
+        <v>0.03192309960373493</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>228</v>
+      </c>
+      <c r="J55" t="n">
+        <v>460</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1436597632.976526</v>
+        <v>1152749559.318877</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1430557146732383</v>
+        <v>0.1553884205605232</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05625207127903792</v>
+        <v>0.03617294930124226</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4326744695.649754</v>
+        <v>4542011623.812766</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1475560699298024</v>
+        <v>0.1239524406417547</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01930528261390567</v>
+        <v>0.02564542758708561</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>460</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1520539675.915816</v>
+        <v>1811617365.258449</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1308740916364819</v>
+        <v>0.2017476517338577</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02540107251589599</v>
+        <v>0.02864947437837633</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4681873925.511086</v>
+        <v>4009729110.195908</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1272202500469724</v>
+        <v>0.1208289864254764</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03545531182498984</v>
+        <v>0.03548536564891068</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>225</v>
+      </c>
+      <c r="J59" t="n">
+        <v>460</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2390823076.179826</v>
+        <v>3566164213.124002</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1502396394623101</v>
+        <v>0.1824244855842071</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02815828597289766</v>
+        <v>0.03038064654717576</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2991807699.887436</v>
+        <v>3238258218.605008</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1493231614585543</v>
+        <v>0.1332723520607211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02248205005542334</v>
+        <v>0.02311396689466995</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1850467162.66398</v>
+        <v>1856621447.935845</v>
       </c>
       <c r="F62" t="n">
-        <v>0.194927296772843</v>
+        <v>0.1674625509893611</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0414993404707491</v>
+        <v>0.03564823742709988</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4749225882.097877</v>
+        <v>5284749739.377421</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06505299663099942</v>
+        <v>0.1026539627839862</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03176461832732475</v>
+        <v>0.03444971187912493</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>230</v>
+      </c>
+      <c r="J63" t="n">
+        <v>460</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4386590809.372278</v>
+        <v>5322251881.149047</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1756527037611026</v>
+        <v>0.1202387560585158</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02974821670103076</v>
+        <v>0.03464067426346459</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>230</v>
+      </c>
+      <c r="J64" t="n">
+        <v>460</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4970342211.939093</v>
+        <v>4994513932.86535</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1206418933114969</v>
+        <v>0.1386069784909671</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02490309632222769</v>
+        <v>0.02820979697073936</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>327</v>
+      </c>
+      <c r="J65" t="n">
+        <v>460</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3661185986.504508</v>
+        <v>5234521384.169328</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006751234724376</v>
+        <v>0.1210229800933067</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04096324576278961</v>
+        <v>0.05031166098575975</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>227</v>
+      </c>
+      <c r="J66" t="n">
+        <v>459</v>
+      </c>
+      <c r="K66" t="n">
+        <v>34.29671755001404</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2609298200.284145</v>
+        <v>2410334681.491294</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07145730500895382</v>
+        <v>0.08219116371146842</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03475293129070022</v>
+        <v>0.04035371980282636</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5212403832.087882</v>
+        <v>5578303898.968969</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1552814123632638</v>
+        <v>0.1584759701101768</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0445676278198951</v>
+        <v>0.04523863471945463</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>250</v>
+      </c>
+      <c r="J68" t="n">
+        <v>459</v>
+      </c>
+      <c r="K68" t="n">
+        <v>31.9916887501537</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2322116581.263064</v>
+        <v>1838881593.90722</v>
       </c>
       <c r="F69" t="n">
-        <v>0.131071415218896</v>
+        <v>0.1677020468558389</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04092029282523808</v>
+        <v>0.04881163180046102</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2911,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3727366025.911233</v>
+        <v>2372372456.689174</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09442856389481027</v>
+        <v>0.06421331921181526</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04719740234381269</v>
+        <v>0.04749928196617463</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" t="n">
+        <v>459</v>
+      </c>
+      <c r="K70" t="n">
+        <v>24.80144918964707</v>
       </c>
     </row>
     <row r="71">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3670085189.294107</v>
+        <v>5454958608.736721</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1854126598700027</v>
+        <v>0.1568219779183767</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02472558898159142</v>
+        <v>0.030397641104402</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>313</v>
+      </c>
+      <c r="J71" t="n">
+        <v>460</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1714767318.942205</v>
+        <v>1977370477.457594</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1078337622849249</v>
+        <v>0.0935888652465043</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03356989203306891</v>
+        <v>0.03958941849314726</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2295788823.251563</v>
+        <v>2752686004.145322</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1019607750292419</v>
+        <v>0.07571685147466201</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03281502958997831</v>
+        <v>0.0465841765496921</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2687733874.587374</v>
+        <v>3452378951.00767</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1384170218811966</v>
+        <v>0.113616245576308</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02710780620980148</v>
+        <v>0.03172569204459758</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>134</v>
+      </c>
+      <c r="J74" t="n">
+        <v>457</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2263382933.805754</v>
+        <v>1611420507.784568</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1671317334932183</v>
+        <v>0.1549267179037718</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0334698661471677</v>
+        <v>0.02538933692712389</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3680028433.129436</v>
+        <v>5013229969.229326</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09607613272741274</v>
+        <v>0.08048150895165672</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02551812929738616</v>
+        <v>0.03224861644548366</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>220</v>
+      </c>
+      <c r="J76" t="n">
+        <v>459</v>
+      </c>
+      <c r="K76" t="n">
+        <v>32.63345088299077</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1861218734.947568</v>
+        <v>1682050815.955256</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1307584928901173</v>
+        <v>0.13999449533605</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03173932970284965</v>
+        <v>0.02084251784106822</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4306617512.199492</v>
+        <v>4521124530.016578</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1151176880866215</v>
+        <v>0.1288071296909165</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04958559122206961</v>
+        <v>0.04057275660923706</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>229</v>
+      </c>
+      <c r="J78" t="n">
+        <v>460</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1196523476.286861</v>
+        <v>1503184720.721733</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1757004714546211</v>
+        <v>0.1246960980013847</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03999641704698908</v>
+        <v>0.02856712118196065</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4738540787.615822</v>
+        <v>5471682558.396555</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1033446341912087</v>
+        <v>0.08271210940381807</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02484192386738325</v>
+        <v>0.02869294018957259</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>224</v>
+      </c>
+      <c r="J80" t="n">
+        <v>460</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4126935774.459929</v>
+        <v>4307785717.713078</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1041901607943636</v>
+        <v>0.1006530400131932</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02662913051394928</v>
+        <v>0.02741598150192027</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>214</v>
+      </c>
+      <c r="J81" t="n">
+        <v>460</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4998947428.130724</v>
+        <v>5530581434.282643</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1403836940271315</v>
+        <v>0.2109771590126659</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02279364769280209</v>
+        <v>0.02099538635135551</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>306</v>
+      </c>
+      <c r="J82" t="n">
+        <v>459</v>
+      </c>
+      <c r="K82" t="n">
+        <v>31.61941253441598</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1605875244.251245</v>
+        <v>2160420440.186638</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1279947586581943</v>
+        <v>0.1159776178953186</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03345900734210147</v>
+        <v>0.04116314965474385</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2084678411.959008</v>
+        <v>2331869559.852007</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143112965911017</v>
+        <v>0.1212804304035667</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04111965084014596</v>
+        <v>0.03351672698057859</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2959989244.576046</v>
+        <v>3071118187.14667</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1697157868093224</v>
+        <v>0.1496273136944561</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03533357429340532</v>
+        <v>0.03890372452989595</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2151970011.292093</v>
+        <v>1938914918.168242</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1205385069560219</v>
+        <v>0.1503314392565715</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0257394419787868</v>
+        <v>0.02506681643198866</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1317851033.562325</v>
+        <v>1359791328.534689</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1756459619923732</v>
+        <v>0.1689940247739644</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03222985163470818</v>
+        <v>0.0298180907361356</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2605418068.583773</v>
+        <v>3053951243.20999</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1181083738020769</v>
+        <v>0.1133262566361294</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02845815392265046</v>
+        <v>0.02595645607885159</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2635058193.069191</v>
+        <v>2605009739.834798</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241146654473912</v>
+        <v>0.1323151657557681</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03613662240668437</v>
+        <v>0.03218510718322619</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2151390713.913465</v>
+        <v>1823359777.267745</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1117257631183261</v>
+        <v>0.12539534436732</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04010480905446835</v>
+        <v>0.05189363250285545</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1357779663.835229</v>
+        <v>2047420007.175343</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1596916332093601</v>
+        <v>0.1248299898383672</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0535981136212668</v>
+        <v>0.04370753224046781</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2855801323.411079</v>
+        <v>2596476537.276861</v>
       </c>
       <c r="F92" t="n">
-        <v>0.109599207412934</v>
+        <v>0.07026339545051086</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04362690182201916</v>
+        <v>0.03982168927828711</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3197366079.205238</v>
+        <v>4612891894.985298</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1393314487987056</v>
+        <v>0.1238355082418024</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04508473945205174</v>
+        <v>0.04368005240000764</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>221</v>
+      </c>
+      <c r="J93" t="n">
+        <v>460</v>
+      </c>
+      <c r="K93" t="n">
+        <v>35.45891079343875</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2107701301.641144</v>
+        <v>1858307656.230738</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1611588526184347</v>
+        <v>0.1118952333932634</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03011523899913408</v>
+        <v>0.04264644854685579</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3179807892.713921</v>
+        <v>2610802598.463968</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1018678776607841</v>
+        <v>0.1254944061915129</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03802095357478245</v>
+        <v>0.04833930724154362</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1487868196.483576</v>
+        <v>1873360783.039952</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09174841379697513</v>
+        <v>0.09153714789427862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03021262987624419</v>
+        <v>0.02989227522666706</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3726729092.811778</v>
+        <v>4332819547.541329</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1767338088725939</v>
+        <v>0.1406655330415453</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02014758245861321</v>
+        <v>0.02397421828052943</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>239</v>
+      </c>
+      <c r="J97" t="n">
+        <v>460</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3888207003.251343</v>
+        <v>3785665793.022305</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1136955441419075</v>
+        <v>0.1256045041215084</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02078538935064548</v>
+        <v>0.02491814476606373</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>115</v>
+      </c>
+      <c r="J98" t="n">
+        <v>460</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3231161273.890944</v>
+        <v>3117015034.969761</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1478909209933501</v>
+        <v>0.1031707318414699</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02641402722171735</v>
+        <v>0.03094849546671781</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3348292091.998216</v>
+        <v>2950357057.23705</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1368874109706006</v>
+        <v>0.1504042008184414</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02636728648469826</v>
+        <v>0.01803026178650326</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>214</v>
+      </c>
+      <c r="J100" t="n">
+        <v>459</v>
+      </c>
+      <c r="K100" t="n">
+        <v>23.10606017785721</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2683848100.865125</v>
+        <v>3029280700.476748</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1826571095302259</v>
+        <v>0.1982120755108308</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05102965492031793</v>
+        <v>0.03534258316421673</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
